--- a/Quantitative Momentum Investing Strategy/momentum_strategy.xlsx
+++ b/Quantitative Momentum Investing Strategy/momentum_strategy.xlsx
@@ -209,9 +209,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="$0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -274,8 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +643,7 @@
         <v>-0.22668</v>
       </c>
       <c r="E2" s="4">
-        <v>0.1596806387225549</v>
+        <v>0.1616766467065869</v>
       </c>
       <c r="F2" s="4">
         <v>-0.068995</v>
@@ -654,16 +655,16 @@
         <v>-0.01275</v>
       </c>
       <c r="I2" s="4">
-        <v>0.3213572854291417</v>
+        <v>0.3233532934131737</v>
       </c>
       <c r="J2" s="4">
         <v>0.215139</v>
       </c>
       <c r="K2" s="4">
-        <v>0.8123752495009979</v>
+        <v>0.8103792415169661</v>
       </c>
       <c r="L2" s="3">
-        <v>0.437125748502994</v>
+        <v>0.437624750499002</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -686,13 +687,13 @@
         <v>-0.216875</v>
       </c>
       <c r="G3" s="4">
-        <v>0.2035928143712575</v>
+        <v>0.2075848303393214</v>
       </c>
       <c r="H3" s="4">
         <v>0.068158</v>
       </c>
       <c r="I3" s="4">
-        <v>0.5508982035928144</v>
+        <v>0.5528942115768463</v>
       </c>
       <c r="J3" s="4">
         <v>0.135791</v>
@@ -701,7 +702,7 @@
         <v>0.594810379241517</v>
       </c>
       <c r="L3" s="3">
-        <v>0.4231536926147705</v>
+        <v>0.4246506986027944</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -718,13 +719,13 @@
         <v>-0.078666</v>
       </c>
       <c r="E4" s="4">
-        <v>0.3692614770459082</v>
+        <v>0.3712574850299402</v>
       </c>
       <c r="F4" s="4">
         <v>-0.196511</v>
       </c>
       <c r="G4" s="4">
-        <v>0.2335329341317365</v>
+        <v>0.2355289421157684</v>
       </c>
       <c r="H4" s="4">
         <v>0.039795</v>
@@ -739,7 +740,7 @@
         <v>0.1736526946107785</v>
       </c>
       <c r="L4" s="3">
-        <v>0.3168662674650699</v>
+        <v>0.3178642714570858</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -794,7 +795,7 @@
         <v>-0.06343500000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3972055888223553</v>
+        <v>0.3952095808383234</v>
       </c>
       <c r="F6" s="4">
         <v>0.115337</v>
@@ -815,7 +816,7 @@
         <v>0.7025948103792414</v>
       </c>
       <c r="L6" s="3">
-        <v>0.7065868263473054</v>
+        <v>0.7060878243512974</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -838,7 +839,7 @@
         <v>-0.100988</v>
       </c>
       <c r="G7" s="4">
-        <v>0.3852295409181636</v>
+        <v>0.3832335329341317</v>
       </c>
       <c r="H7" s="4">
         <v>0.137095</v>
@@ -853,7 +854,7 @@
         <v>0.7504990019960079</v>
       </c>
       <c r="L7" s="3">
-        <v>0.5988023952095808</v>
+        <v>0.5983033932135728</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -870,7 +871,7 @@
         <v>0.060452</v>
       </c>
       <c r="E8" s="4">
-        <v>0.6167664670658684</v>
+        <v>0.6187624750499002</v>
       </c>
       <c r="F8" s="4">
         <v>0.041883</v>
@@ -888,10 +889,10 @@
         <v>0.061859</v>
       </c>
       <c r="K8" s="4">
-        <v>0.3373253493013972</v>
+        <v>0.3393213572854292</v>
       </c>
       <c r="L8" s="3">
-        <v>0.5464071856287425</v>
+        <v>0.5474051896207585</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1034,7 +1035,7 @@
         <v>-0.022861</v>
       </c>
       <c r="I12" s="4">
-        <v>0.2954091816367265</v>
+        <v>0.2974051896207585</v>
       </c>
       <c r="J12" s="4">
         <v>0.103974</v>
@@ -1043,7 +1044,7 @@
         <v>0.4850299401197605</v>
       </c>
       <c r="L12" s="3">
-        <v>0.4106786427145709</v>
+        <v>0.4111776447105788</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1060,13 +1061,13 @@
         <v>0.064138</v>
       </c>
       <c r="E13" s="4">
-        <v>0.624750499001996</v>
+        <v>0.626746506986028</v>
       </c>
       <c r="F13" s="4">
         <v>0.206018</v>
       </c>
       <c r="G13" s="4">
-        <v>0.8762475049900199</v>
+        <v>0.8782435129740519</v>
       </c>
       <c r="H13" s="4">
         <v>0.294487</v>
@@ -1081,7 +1082,7 @@
         <v>0.7544910179640719</v>
       </c>
       <c r="L13" s="3">
-        <v>0.7954091816367266</v>
+        <v>0.7964071856287426</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1098,13 +1099,13 @@
         <v>0.110471</v>
       </c>
       <c r="E14" s="4">
-        <v>0.7125748502994012</v>
+        <v>0.7145708582834331</v>
       </c>
       <c r="F14" s="4">
         <v>-0.091298</v>
       </c>
       <c r="G14" s="4">
-        <v>0.3992015968063873</v>
+        <v>0.3972055888223553</v>
       </c>
       <c r="H14" s="4">
         <v>0.071019</v>
@@ -1142,7 +1143,7 @@
         <v>-0.030264</v>
       </c>
       <c r="G15" s="4">
-        <v>0.5429141716566867</v>
+        <v>0.5449101796407185</v>
       </c>
       <c r="H15" s="4">
         <v>0.258299</v>
@@ -1157,7 +1158,7 @@
         <v>0.5269461077844312</v>
       </c>
       <c r="L15" s="3">
-        <v>0.5593812375249501</v>
+        <v>0.5598802395209581</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1186,7 +1187,7 @@
         <v>0.193066</v>
       </c>
       <c r="I16" s="4">
-        <v>0.8063872255489022</v>
+        <v>0.8043912175648703</v>
       </c>
       <c r="J16" s="4">
         <v>0.172477</v>
@@ -1195,7 +1196,7 @@
         <v>0.6806387225548902</v>
       </c>
       <c r="L16" s="3">
-        <v>0.6846307385229541</v>
+        <v>0.6841317365269461</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1218,7 +1219,7 @@
         <v>-0.202695</v>
       </c>
       <c r="G17" s="4">
-        <v>0.2135728542914171</v>
+        <v>0.217564870259481</v>
       </c>
       <c r="H17" s="4">
         <v>0.027456</v>
@@ -1233,7 +1234,7 @@
         <v>0.4570858283433134</v>
       </c>
       <c r="L17" s="3">
-        <v>0.341816367265469</v>
+        <v>0.342814371257485</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1256,13 +1257,13 @@
         <v>-0.168301</v>
       </c>
       <c r="G18" s="4">
-        <v>0.2714570858283433</v>
+        <v>0.2734530938123753</v>
       </c>
       <c r="H18" s="4">
         <v>0.017491</v>
       </c>
       <c r="I18" s="4">
-        <v>0.407185628742515</v>
+        <v>0.4091816367265469</v>
       </c>
       <c r="J18" s="4">
         <v>0.228932</v>
@@ -1271,7 +1272,7 @@
         <v>0.8483033932135728</v>
       </c>
       <c r="L18" s="3">
-        <v>0.4550898203592814</v>
+        <v>0.4560878243512974</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1288,7 +1289,7 @@
         <v>0.193705</v>
       </c>
       <c r="E19" s="4">
-        <v>0.8183632734530939</v>
+        <v>0.8163672654690619</v>
       </c>
       <c r="F19" s="4">
         <v>0.299616</v>
@@ -1300,7 +1301,7 @@
         <v>0.196371</v>
       </c>
       <c r="I19" s="4">
-        <v>0.8103792415169661</v>
+        <v>0.8083832335329342</v>
       </c>
       <c r="J19" s="4">
         <v>0.312956</v>
@@ -1309,7 +1310,7 @@
         <v>0.940119760479042</v>
       </c>
       <c r="L19" s="3">
-        <v>0.875249500998004</v>
+        <v>0.874251497005988</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1402,19 +1403,19 @@
         <v>-0.236227</v>
       </c>
       <c r="E22" s="4">
-        <v>0.1457085828343313</v>
+        <v>0.1477045908183633</v>
       </c>
       <c r="F22" s="4">
         <v>-0.189808</v>
       </c>
       <c r="G22" s="4">
-        <v>0.2534930139720559</v>
+        <v>0.2514970059880239</v>
       </c>
       <c r="H22" s="4">
         <v>-0.129267</v>
       </c>
       <c r="I22" s="4">
-        <v>0.1117764471057884</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="J22" s="4">
         <v>0.07813100000000001</v>
@@ -1423,7 +1424,7 @@
         <v>0.3952095808383234</v>
       </c>
       <c r="L22" s="3">
-        <v>0.2265469061876248</v>
+        <v>0.2270459081836327</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1440,7 +1441,7 @@
         <v>0.055938</v>
       </c>
       <c r="E23" s="4">
-        <v>0.6087824351297405</v>
+        <v>0.6107784431137725</v>
       </c>
       <c r="F23" s="4">
         <v>0.087408</v>
@@ -1461,7 +1462,7 @@
         <v>0.4391217564870259</v>
       </c>
       <c r="L23" s="3">
-        <v>0.5913173652694611</v>
+        <v>0.591816367265469</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1475,16 +1476,16 @@
         <v>1657</v>
       </c>
       <c r="D24" s="4">
-        <v>-0.058057</v>
+        <v>-0.058056</v>
       </c>
       <c r="E24" s="4">
-        <v>0.405189620758483</v>
+        <v>0.4031936127744511</v>
       </c>
       <c r="F24" s="4">
         <v>-0.030548</v>
       </c>
       <c r="G24" s="4">
-        <v>0.5409181636726547</v>
+        <v>0.5429141716566867</v>
       </c>
       <c r="H24" s="4">
         <v>-0.104038</v>
@@ -1522,7 +1523,7 @@
         <v>-0.195424</v>
       </c>
       <c r="G25" s="4">
-        <v>0.2395209580838323</v>
+        <v>0.2415169660678643</v>
       </c>
       <c r="H25" s="4">
         <v>0.091391</v>
@@ -1537,7 +1538,7 @@
         <v>0.2295409181636727</v>
       </c>
       <c r="L25" s="3">
-        <v>0.345309381237525</v>
+        <v>0.345808383233533</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1560,13 +1561,13 @@
         <v>-0.182806</v>
       </c>
       <c r="G26" s="4">
-        <v>0.2554890219560878</v>
+        <v>0.2534930139720559</v>
       </c>
       <c r="H26" s="4">
         <v>0.094481</v>
       </c>
       <c r="I26" s="4">
-        <v>0.6127744510978044</v>
+        <v>0.6107784431137725</v>
       </c>
       <c r="J26" s="4">
         <v>0.031482</v>
@@ -1575,7 +1576,7 @@
         <v>0.2275449101796407</v>
       </c>
       <c r="L26" s="3">
-        <v>0.3507984031936128</v>
+        <v>0.3498003992015968</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1592,7 +1593,7 @@
         <v>0.034139</v>
       </c>
       <c r="E27" s="4">
-        <v>0.5768463073852296</v>
+        <v>0.5748502994011976</v>
       </c>
       <c r="F27" s="4">
         <v>-0.106128</v>
@@ -1613,7 +1614,7 @@
         <v>0.3992015968063873</v>
       </c>
       <c r="L27" s="3">
-        <v>0.344810379241517</v>
+        <v>0.344311377245509</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1665,10 +1666,10 @@
         <v>15825</v>
       </c>
       <c r="D29" s="4">
-        <v>0.114654</v>
+        <v>0.114655</v>
       </c>
       <c r="E29" s="4">
-        <v>0.718562874251497</v>
+        <v>0.720558882235529</v>
       </c>
       <c r="F29" s="4">
         <v>0.16846</v>
@@ -1689,7 +1690,7 @@
         <v>0.09980039920159682</v>
       </c>
       <c r="L29" s="3">
-        <v>0.5014970059880239</v>
+        <v>0.5019960079840319</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1712,7 +1713,7 @@
         <v>-0.159215</v>
       </c>
       <c r="G30" s="4">
-        <v>0.2914171656686627</v>
+        <v>0.2934131736526946</v>
       </c>
       <c r="H30" s="4">
         <v>0.279481</v>
@@ -1727,7 +1728,7 @@
         <v>0.9800399201596807</v>
       </c>
       <c r="L30" s="3">
-        <v>0.717564870259481</v>
+        <v>0.7180638722554891</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1762,10 +1763,10 @@
         <v>0.067745</v>
       </c>
       <c r="K31" s="4">
-        <v>0.3572854291417166</v>
+        <v>0.3592814371257485</v>
       </c>
       <c r="L31" s="3">
-        <v>0.5434131736526946</v>
+        <v>0.5439121756487025</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1832,7 +1833,7 @@
         <v>0.01462</v>
       </c>
       <c r="I33" s="4">
-        <v>0.3972055888223553</v>
+        <v>0.3992015968063873</v>
       </c>
       <c r="J33" s="4">
         <v>0.079317</v>
@@ -1841,7 +1842,7 @@
         <v>0.3972055888223553</v>
       </c>
       <c r="L33" s="3">
-        <v>0.6127744510978044</v>
+        <v>0.6132734530938124</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1864,7 +1865,7 @@
         <v>-0.197396</v>
       </c>
       <c r="G34" s="4">
-        <v>0.2315369261477046</v>
+        <v>0.2335329341317365</v>
       </c>
       <c r="H34" s="4">
         <v>-0.00514</v>
@@ -1879,7 +1880,7 @@
         <v>0.6846307385229541</v>
       </c>
       <c r="L34" s="3">
-        <v>0.436626746506986</v>
+        <v>0.437125748502994</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1902,13 +1903,13 @@
         <v>-0.178118</v>
       </c>
       <c r="G35" s="4">
-        <v>0.2594810379241517</v>
+        <v>0.2574850299401197</v>
       </c>
       <c r="H35" s="4">
         <v>-0.162099</v>
       </c>
       <c r="I35" s="4">
-        <v>0.07784431137724551</v>
+        <v>0.07984031936127745</v>
       </c>
       <c r="J35" s="4">
         <v>0.029872</v>
@@ -1934,7 +1935,7 @@
         <v>0.030941</v>
       </c>
       <c r="E36" s="4">
-        <v>0.564870259481038</v>
+        <v>0.5668662674650699</v>
       </c>
       <c r="F36" s="4">
         <v>0.200201</v>
@@ -1955,7 +1956,7 @@
         <v>0.4291417165668663</v>
       </c>
       <c r="L36" s="3">
-        <v>0.6931137724550899</v>
+        <v>0.6936127744510978</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1972,7 +1973,7 @@
         <v>-0.088545</v>
       </c>
       <c r="E37" s="4">
-        <v>0.341317365269461</v>
+        <v>0.3393213572854292</v>
       </c>
       <c r="F37" s="4">
         <v>0.037008</v>
@@ -1990,7 +1991,7 @@
         <v>0.057775</v>
       </c>
       <c r="K37" s="4">
-        <v>0.3293413173652694</v>
+        <v>0.3313373253493014</v>
       </c>
       <c r="L37" s="3">
         <v>0.4930139720558883</v>
@@ -2013,7 +2014,7 @@
         <v>0.6766467065868264</v>
       </c>
       <c r="F38" s="4">
-        <v>-0.138004</v>
+        <v>-0.138005</v>
       </c>
       <c r="G38" s="4">
         <v>0.3253493013972056</v>
@@ -2048,7 +2049,7 @@
         <v>0.195695</v>
       </c>
       <c r="E39" s="4">
-        <v>0.8203592814371258</v>
+        <v>0.8183632734530939</v>
       </c>
       <c r="F39" s="4">
         <v>0.043558</v>
@@ -2060,7 +2061,7 @@
         <v>-0.148183</v>
       </c>
       <c r="I39" s="4">
-        <v>0.09181636726546906</v>
+        <v>0.08982035928143713</v>
       </c>
       <c r="J39" s="4">
         <v>-0.005235</v>
@@ -2069,7 +2070,7 @@
         <v>0.1357285429141717</v>
       </c>
       <c r="L39" s="3">
-        <v>0.4286427145708583</v>
+        <v>0.4276447105788423</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2086,7 +2087,7 @@
         <v>-0.049469</v>
       </c>
       <c r="E40" s="4">
-        <v>0.4171656686626746</v>
+        <v>0.4151696606786427</v>
       </c>
       <c r="F40" s="4">
         <v>-0.080953</v>
@@ -2107,7 +2108,7 @@
         <v>0.7045908183632734</v>
       </c>
       <c r="L40" s="3">
-        <v>0.5184630738522954</v>
+        <v>0.5179640718562875</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2136,7 +2137,7 @@
         <v>0.06426800000000001</v>
       </c>
       <c r="I41" s="4">
-        <v>0.5409181636726547</v>
+        <v>0.5429141716566867</v>
       </c>
       <c r="J41" s="4">
         <v>-0.001852</v>
@@ -2145,7 +2146,7 @@
         <v>0.1417165668662675</v>
       </c>
       <c r="L41" s="3">
-        <v>0.5713572854291418</v>
+        <v>0.5718562874251497</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2162,7 +2163,7 @@
         <v>0.100034</v>
       </c>
       <c r="E42" s="4">
-        <v>0.7005988023952097</v>
+        <v>0.7025948103792414</v>
       </c>
       <c r="F42" s="4">
         <v>0.036221</v>
@@ -2174,7 +2175,7 @@
         <v>0.192046</v>
       </c>
       <c r="I42" s="4">
-        <v>0.8043912175648703</v>
+        <v>0.8023952095808383</v>
       </c>
       <c r="J42" s="4">
         <v>0.272538</v>
@@ -2183,7 +2184,7 @@
         <v>0.9161676646706587</v>
       </c>
       <c r="L42" s="3">
-        <v>0.7684630738522955</v>
+        <v>0.7684630738522954</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2282,13 +2283,13 @@
         <v>0.05698</v>
       </c>
       <c r="G45" s="4">
-        <v>0.6966067864271457</v>
+        <v>0.6946107784431138</v>
       </c>
       <c r="H45" s="4">
         <v>0.09285</v>
       </c>
       <c r="I45" s="4">
-        <v>0.6087824351297405</v>
+        <v>0.6067864271457085</v>
       </c>
       <c r="J45" s="4">
         <v>0.090755</v>
@@ -2297,7 +2298,7 @@
         <v>0.4331337325349301</v>
       </c>
       <c r="L45" s="3">
-        <v>0.624750499001996</v>
+        <v>0.62375249500998</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2320,7 +2321,7 @@
         <v>0.070659</v>
       </c>
       <c r="G46" s="4">
-        <v>0.720558882235529</v>
+        <v>0.718562874251497</v>
       </c>
       <c r="H46" s="4">
         <v>-0.14239</v>
@@ -2335,7 +2336,7 @@
         <v>0.05988023952095808</v>
       </c>
       <c r="L46" s="3">
-        <v>0.468562874251497</v>
+        <v>0.468063872255489</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2349,16 +2350,16 @@
         <v>1189</v>
       </c>
       <c r="D47" s="4">
-        <v>0.173372</v>
+        <v>0.173371</v>
       </c>
       <c r="E47" s="4">
-        <v>0.7964071856287426</v>
+        <v>0.7944111776447106</v>
       </c>
       <c r="F47" s="4">
         <v>-0.009856999999999999</v>
       </c>
       <c r="G47" s="4">
-        <v>0.5808383233532934</v>
+        <v>0.5768463073852296</v>
       </c>
       <c r="H47" s="4">
         <v>0.145287</v>
@@ -2373,7 +2374,7 @@
         <v>0.778443113772455</v>
       </c>
       <c r="L47" s="3">
-        <v>0.7205588822355289</v>
+        <v>0.7190618762475049</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2390,13 +2391,13 @@
         <v>-0.162009</v>
       </c>
       <c r="E48" s="4">
-        <v>0.2215568862275449</v>
+        <v>0.2235528942115769</v>
       </c>
       <c r="F48" s="4">
         <v>-0.243874</v>
       </c>
       <c r="G48" s="4">
-        <v>0.1676646706586826</v>
+        <v>0.1656686626746507</v>
       </c>
       <c r="H48" s="4">
         <v>0.077616</v>
@@ -2434,7 +2435,7 @@
         <v>-0.239002</v>
       </c>
       <c r="G49" s="4">
-        <v>0.1756487025948104</v>
+        <v>0.1736526946107785</v>
       </c>
       <c r="H49" s="4">
         <v>0.171565</v>
@@ -2449,7 +2450,7 @@
         <v>0.8942115768463075</v>
       </c>
       <c r="L49" s="3">
-        <v>0.4715568862275449</v>
+        <v>0.4710578842315369</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2542,7 +2543,7 @@
         <v>0.033855</v>
       </c>
       <c r="E52" s="4">
-        <v>0.5748502994011976</v>
+        <v>0.5728542914171657</v>
       </c>
       <c r="F52" s="4">
         <v>0.091711</v>
@@ -2563,7 +2564,7 @@
         <v>0.01596806387225549</v>
       </c>
       <c r="L52" s="3">
-        <v>0.3522954091816367</v>
+        <v>0.3517964071856288</v>
       </c>
     </row>
   </sheetData>
